--- a/Excel/Bailey/Bailey — техничка.xlsx
+++ b/Excel/Bailey/Bailey — техничка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Bailey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C3FDB-BFFC-48C0-BD17-FABAE22D9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB14325-7EFF-41D0-8F95-6460D75268A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF93E06-745E-43BB-B362-39D65D7A1090}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="610">
   <si>
     <t>Артикул на этикетке</t>
   </si>
@@ -6226,6 +6226,1856 @@
         <a:xfrm>
           <a:off x="4264025" y="108393421"/>
           <a:ext cx="1778000" cy="1059430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>207165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1154909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Рисунок 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85412DB-FF63-418E-B28C-E7D65C23CE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="1045365"/>
+          <a:ext cx="1778000" cy="947744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>23935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1309566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Рисунок 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028EB9E-48E4-4095-A11B-288E7B39CEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="2224210"/>
+          <a:ext cx="1778000" cy="1285631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1794327</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1155701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Рисунок 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E01C52-66B3-439A-B857-14005101FC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4347481" y="3559176"/>
+          <a:ext cx="1685471" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1233461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Рисунок 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5EE707-306A-4738-BCE9-2A49FE761607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="4738713"/>
+          <a:ext cx="1778000" cy="1209623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>72094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1175680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Рисунок 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F291819D-6809-4BC9-97C2-22AC3187F19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="6044269"/>
+          <a:ext cx="1778000" cy="1103586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>24470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>1128056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Рисунок 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F77B840-89E2-4574-87E3-9104016DD7B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="7244420"/>
+          <a:ext cx="1778000" cy="1103586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1180910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Рисунок 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1314E05-CB9B-4007-BC94-43075B252FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="8401241"/>
+          <a:ext cx="1778000" cy="1152144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>40053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1245823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Рисунок 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA864ED-EDE1-41C5-8713-B6FC20A888C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="9622203"/>
+          <a:ext cx="1778000" cy="1205770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1113952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Рисунок 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866AC5D6-1682-45FF-B4E0-1B48DD3E0899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="13868871"/>
+          <a:ext cx="1778000" cy="961081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>147439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1300361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Рисунок 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916F5D69-5051-4296-8C84-EF74E0CEBA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="15130264"/>
+          <a:ext cx="1778000" cy="1152922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>21191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1159910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Рисунок 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987A8F84-A971-4B52-A1DB-2E79DEB126CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="16451816"/>
+          <a:ext cx="1778000" cy="1138719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>150516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>1230609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Рисунок 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2029BB22-45A3-4B45-BA44-8EE29BBF5EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="17762241"/>
+          <a:ext cx="1778000" cy="1080093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>43236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1128339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Рисунок 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88BF874-9A32-445A-9C84-1FA52B445CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="19036086"/>
+          <a:ext cx="1778000" cy="1085103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>25141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1203583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Рисунок 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B337A835-01FD-41CB-9180-510E8E8991AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="20189566"/>
+          <a:ext cx="1778000" cy="1178442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>24364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1280560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Рисунок 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFB3ED6-589D-41FA-9FB4-25975CB0FDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="21417514"/>
+          <a:ext cx="1778000" cy="1256196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>170193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1268084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Рисунок 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F176B176-9C43-46B5-A86B-3933F2BA1E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="22868268"/>
+          <a:ext cx="1778000" cy="1097891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>253478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>22748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Рисунок 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D24954-0365-4AC9-BD68-0AE70C9A32C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="24389828"/>
+          <a:ext cx="1778000" cy="1226595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>179977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>1248775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Рисунок 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C40B139-1FB4-429B-9912-7E137F1A393F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="26049877"/>
+          <a:ext cx="1778000" cy="1068798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>24256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1290192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Рисунок 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC710CF3-B021-4FC7-A3D7-C8B8DE5F8F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="27322906"/>
+          <a:ext cx="1778000" cy="1265936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>138410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1395112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Рисунок 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500617CC-3589-47CF-9697-414C26D91CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="28751510"/>
+          <a:ext cx="1778000" cy="1256702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>24299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1700893</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1306286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Рисунок 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1483F86D-0985-46BA-A014-3C68031F9457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257221" y="141606620"/>
+          <a:ext cx="1675493" cy="1281987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>21788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>1311710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Рисунок 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28669F26-EBB5-4D94-81D5-4B011F16B412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="31730513"/>
+          <a:ext cx="1778000" cy="1289922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>178330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>1431397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Рисунок 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB399E-F85E-40AE-8B9E-F2CAD71D2AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="33220555"/>
+          <a:ext cx="1778000" cy="1253067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>274014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>1354759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Рисунок 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC1F18D-71C1-47EF-A051-A42429B4D11F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="34925964"/>
+          <a:ext cx="1778000" cy="1080745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>113795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1305433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Рисунок 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2028F021-84E4-440B-8209-E52758C29D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="36394520"/>
+          <a:ext cx="1778000" cy="1191638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>24941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1289508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Рисунок 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9409C54-21E3-4C12-9954-2510715AE9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="37724891"/>
+          <a:ext cx="1778000" cy="1264567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>23778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1366872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Рисунок 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846A9542-2C78-458B-91EC-D2BA1B910918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="39038178"/>
+          <a:ext cx="1778000" cy="1343094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>1279525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Рисунок 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA1310F-7A89-42A8-93EE-40C8E0B887CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="40439975"/>
+          <a:ext cx="1778000" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>54359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>1317238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Рисунок 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C28FED9-DC44-4A9B-BA6B-698CC62A87DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="41773859"/>
+          <a:ext cx="1778000" cy="1262879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>64998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>1278026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Рисунок 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABEBA24-9059-4EA4-8C94-41CF05448598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="43156098"/>
+          <a:ext cx="1778000" cy="1213028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Рисунок 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB8E00B-CD38-4909-A0CF-FF387B067BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="44691300"/>
+          <a:ext cx="1778000" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>61947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1404904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Рисунок 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1A793F-D9FC-454B-A49E-3A96187A4C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="45943872"/>
+          <a:ext cx="1778000" cy="1342957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>203473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1282430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Рисунок 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB414F1-C92A-40F1-B2E8-6FA77A91D87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="47552248"/>
+          <a:ext cx="1778000" cy="1078957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>202282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>1255045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Рисунок 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F934F7B9-42EA-48C3-B656-649C3F317884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="49036957"/>
+          <a:ext cx="1778000" cy="1052763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>72169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>1385154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Рисунок 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945CA15C-1F0D-4DB1-B0C2-544E03497AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="50364169"/>
+          <a:ext cx="1778000" cy="1312985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>21873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Рисунок 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A51044-4DCE-4E3A-A663-EBE3E7F3700F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="10893778"/>
+          <a:ext cx="1778000" cy="1453445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>109501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1233524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Рисунок 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE52F7CD-30CB-49A0-94C0-BB71AB037ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="12482476"/>
+          <a:ext cx="1778000" cy="1124023"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10749,9 +12599,9 @@
   </sheetPr>
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18922,660 +20772,3292 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="D83" s="23"/>
-      <c r="F83" s="29"/>
-      <c r="J83" s="30"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="32"/>
-      <c r="AD83" s="23"/>
-      <c r="AF83" s="23"/>
-      <c r="AG83" s="23"/>
-      <c r="AH83" s="33"/>
-      <c r="AI83" s="23"/>
-      <c r="AJ83" s="23"/>
-      <c r="AK83" s="23"/>
-      <c r="AL83" s="34"/>
-      <c r="AM83" s="35"/>
-    </row>
-    <row r="84" spans="1:39" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="D84" s="23"/>
-      <c r="F84" s="29"/>
-      <c r="J84" s="30"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="32"/>
-      <c r="AD84" s="13">
-        <v>1514</v>
-      </c>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="33"/>
-      <c r="AI84" s="23"/>
+    <row r="83" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P83" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF83" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG83" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH83" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI83" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ83" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AK83" s="13">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AL83" s="39">
+        <v>4.59</v>
+      </c>
+      <c r="AM83" s="40">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L84" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P84" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF84" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG84" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH84" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI84" s="13">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AJ84" s="13">
-        <v>151.39999999999998</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AK84" s="13">
-        <v>227.10000000000002</v>
-      </c>
-      <c r="AL84" s="34"/>
-      <c r="AM84" s="35"/>
-    </row>
-    <row r="85" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="D85" s="23"/>
-      <c r="F85" s="29"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="32"/>
-      <c r="AD85" s="23"/>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="23"/>
-      <c r="AH85" s="33"/>
-      <c r="AI85" s="23"/>
-      <c r="AJ85" s="23"/>
-      <c r="AK85" s="23"/>
-      <c r="AL85" s="34"/>
-      <c r="AM85" s="35"/>
-    </row>
-    <row r="86" spans="1:39" s="26" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="D86" s="23"/>
-      <c r="F86" s="29"/>
-      <c r="J86" s="30"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="32"/>
-      <c r="AD86" s="23"/>
-      <c r="AF86" s="23"/>
-      <c r="AG86" s="23"/>
-      <c r="AH86" s="33"/>
-      <c r="AI86" s="23"/>
-      <c r="AJ86" s="23"/>
-      <c r="AK86" s="23"/>
-      <c r="AL86" s="34"/>
-      <c r="AM86" s="35"/>
-    </row>
-    <row r="87" spans="1:39" s="26" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="D87" s="23"/>
-      <c r="F87" s="29"/>
-      <c r="J87" s="30"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="32"/>
-      <c r="AD87" s="23"/>
-      <c r="AF87" s="23"/>
-      <c r="AG87" s="23"/>
-      <c r="AH87" s="33"/>
-      <c r="AI87" s="23"/>
-      <c r="AJ87" s="23"/>
-      <c r="AK87" s="23"/>
-      <c r="AL87" s="34"/>
-      <c r="AM87" s="35"/>
-    </row>
-    <row r="88" spans="1:39" s="26" customFormat="1" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="D88" s="23"/>
-      <c r="F88" s="29"/>
-      <c r="J88" s="30"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="32"/>
-      <c r="AD88" s="23"/>
-      <c r="AF88" s="23"/>
-      <c r="AG88" s="23"/>
-      <c r="AH88" s="33"/>
-      <c r="AI88" s="23"/>
-      <c r="AJ88" s="23"/>
-      <c r="AK88" s="23"/>
-      <c r="AL88" s="34"/>
-      <c r="AM88" s="35"/>
-    </row>
-    <row r="89" spans="1:39" s="26" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="D89" s="23"/>
-      <c r="F89" s="29"/>
-      <c r="J89" s="30"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="32"/>
-      <c r="AD89" s="23"/>
-      <c r="AF89" s="23"/>
-      <c r="AG89" s="23"/>
-      <c r="AH89" s="33"/>
-      <c r="AI89" s="23"/>
-      <c r="AJ89" s="23"/>
-      <c r="AK89" s="23"/>
-      <c r="AL89" s="34"/>
-      <c r="AM89" s="35"/>
-    </row>
-    <row r="90" spans="1:39" s="26" customFormat="1" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="D90" s="23"/>
-      <c r="F90" s="29"/>
-      <c r="J90" s="30"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="32"/>
-      <c r="AD90" s="23"/>
-      <c r="AF90" s="23"/>
-      <c r="AG90" s="23"/>
-      <c r="AH90" s="33"/>
-      <c r="AI90" s="23"/>
-      <c r="AJ90" s="23"/>
-      <c r="AK90" s="23"/>
-      <c r="AL90" s="34"/>
-      <c r="AM90" s="35"/>
-    </row>
-    <row r="91" spans="1:39" s="26" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="D91" s="23"/>
-      <c r="F91" s="29"/>
-      <c r="J91" s="30"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="32"/>
-      <c r="AD91" s="23"/>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="23"/>
-      <c r="AH91" s="33"/>
-      <c r="AI91" s="23"/>
-      <c r="AJ91" s="23"/>
-      <c r="AK91" s="23"/>
-      <c r="AL91" s="34"/>
-      <c r="AM91" s="35"/>
-    </row>
-    <row r="92" spans="1:39" s="26" customFormat="1" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="D92" s="23"/>
-      <c r="F92" s="29"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="32"/>
-      <c r="AD92" s="23"/>
-      <c r="AF92" s="23"/>
-      <c r="AG92" s="23"/>
-      <c r="AH92" s="33"/>
-      <c r="AI92" s="23"/>
-      <c r="AJ92" s="23"/>
-      <c r="AK92" s="23"/>
-      <c r="AL92" s="34"/>
-      <c r="AM92" s="35"/>
-    </row>
-    <row r="93" spans="1:39" s="26" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="D93" s="23"/>
-      <c r="F93" s="29"/>
-      <c r="J93" s="30"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="32"/>
-      <c r="AD93" s="23"/>
-      <c r="AF93" s="23"/>
-      <c r="AG93" s="23"/>
-      <c r="AH93" s="33"/>
-      <c r="AI93" s="23"/>
-      <c r="AJ93" s="23"/>
-      <c r="AK93" s="23"/>
-      <c r="AL93" s="34"/>
-      <c r="AM93" s="35"/>
-    </row>
-    <row r="94" spans="1:39" s="26" customFormat="1" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="D94" s="23"/>
-      <c r="F94" s="29"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="32"/>
-      <c r="AD94" s="23"/>
-      <c r="AF94" s="23"/>
-      <c r="AG94" s="23"/>
-      <c r="AH94" s="33"/>
-      <c r="AI94" s="23"/>
-      <c r="AJ94" s="23"/>
-      <c r="AK94" s="23"/>
-      <c r="AL94" s="34"/>
-      <c r="AM94" s="35"/>
-    </row>
-    <row r="95" spans="1:39" s="26" customFormat="1" ht="81.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="D95" s="23"/>
-      <c r="F95" s="29"/>
-      <c r="J95" s="30"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="32"/>
-      <c r="AD95" s="23"/>
-      <c r="AF95" s="23"/>
-      <c r="AG95" s="23"/>
-      <c r="AH95" s="33"/>
-      <c r="AI95" s="23"/>
-      <c r="AJ95" s="23"/>
-      <c r="AK95" s="23"/>
-      <c r="AL95" s="34"/>
-      <c r="AM95" s="35"/>
-    </row>
-    <row r="96" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="D96" s="23"/>
-      <c r="F96" s="29"/>
-      <c r="J96" s="30"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="32"/>
-      <c r="AD96" s="23"/>
-      <c r="AF96" s="23"/>
-      <c r="AG96" s="23"/>
-      <c r="AH96" s="33"/>
-      <c r="AI96" s="23"/>
-      <c r="AJ96" s="23"/>
-      <c r="AK96" s="23"/>
-      <c r="AL96" s="34"/>
-      <c r="AM96" s="35"/>
-    </row>
-    <row r="97" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="D97" s="23"/>
-      <c r="F97" s="29"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="32"/>
-      <c r="AD97" s="23"/>
-      <c r="AF97" s="23"/>
-      <c r="AG97" s="23"/>
-      <c r="AH97" s="33"/>
-      <c r="AI97" s="23"/>
-      <c r="AJ97" s="23"/>
-      <c r="AK97" s="23"/>
-      <c r="AL97" s="34"/>
-      <c r="AM97" s="35"/>
-    </row>
-    <row r="98" spans="1:39" s="26" customFormat="1" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="D98" s="23"/>
-      <c r="F98" s="29"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="32"/>
-      <c r="AD98" s="23"/>
-      <c r="AF98" s="23"/>
-      <c r="AG98" s="23"/>
-      <c r="AH98" s="33"/>
-      <c r="AI98" s="23"/>
-      <c r="AJ98" s="23"/>
-      <c r="AK98" s="23"/>
-      <c r="AL98" s="34"/>
-      <c r="AM98" s="35"/>
-    </row>
-    <row r="99" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="D99" s="23"/>
-      <c r="F99" s="29"/>
-      <c r="J99" s="30"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="32"/>
-      <c r="AD99" s="23"/>
-      <c r="AF99" s="23"/>
-      <c r="AG99" s="23"/>
-      <c r="AH99" s="33"/>
-      <c r="AI99" s="23"/>
-      <c r="AJ99" s="23"/>
-      <c r="AK99" s="23"/>
-      <c r="AL99" s="34"/>
-      <c r="AM99" s="35"/>
-    </row>
-    <row r="100" spans="1:39" s="26" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="D100" s="23"/>
-      <c r="F100" s="29"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="32"/>
-      <c r="AD100" s="23"/>
-      <c r="AF100" s="23"/>
-      <c r="AG100" s="23"/>
-      <c r="AH100" s="33"/>
-      <c r="AI100" s="23"/>
-      <c r="AJ100" s="23"/>
-      <c r="AK100" s="23"/>
-      <c r="AL100" s="34"/>
-      <c r="AM100" s="35"/>
-    </row>
-    <row r="101" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="D101" s="23"/>
-      <c r="F101" s="29"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="32"/>
-      <c r="AD101" s="23"/>
-      <c r="AF101" s="23"/>
-      <c r="AG101" s="23"/>
-      <c r="AH101" s="33"/>
-      <c r="AI101" s="23"/>
-      <c r="AJ101" s="23"/>
-      <c r="AK101" s="23"/>
-      <c r="AL101" s="34"/>
-      <c r="AM101" s="35"/>
-    </row>
-    <row r="102" spans="1:39" s="26" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="D102" s="23"/>
-      <c r="F102" s="29"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="32"/>
-      <c r="AD102" s="23"/>
-      <c r="AF102" s="23"/>
-      <c r="AG102" s="23"/>
-      <c r="AH102" s="33"/>
-      <c r="AI102" s="23"/>
-      <c r="AJ102" s="23"/>
-      <c r="AK102" s="23"/>
-      <c r="AL102" s="34"/>
-      <c r="AM102" s="35"/>
-    </row>
-    <row r="103" spans="1:39" s="26" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="D103" s="23"/>
-      <c r="F103" s="29"/>
-      <c r="J103" s="30"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="32"/>
-      <c r="AD103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="33"/>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="34"/>
-      <c r="AM103" s="35"/>
-    </row>
-    <row r="104" spans="1:39" s="26" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="D104" s="23"/>
-      <c r="F104" s="29"/>
-      <c r="J104" s="30"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="32"/>
-      <c r="AD104" s="23"/>
-      <c r="AF104" s="23"/>
-      <c r="AG104" s="23"/>
-      <c r="AH104" s="33"/>
-      <c r="AI104" s="23"/>
-      <c r="AJ104" s="23"/>
-      <c r="AK104" s="23"/>
-      <c r="AL104" s="34"/>
-      <c r="AM104" s="35"/>
-    </row>
-    <row r="105" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="D105" s="23"/>
-      <c r="F105" s="29"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="32"/>
-      <c r="AD105" s="23"/>
-      <c r="AF105" s="23"/>
-      <c r="AG105" s="23"/>
-      <c r="AH105" s="33"/>
-      <c r="AI105" s="23"/>
-      <c r="AJ105" s="23"/>
-      <c r="AK105" s="23"/>
-      <c r="AL105" s="34"/>
-      <c r="AM105" s="35"/>
-    </row>
-    <row r="106" spans="1:39" s="26" customFormat="1" ht="100.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="D106" s="23"/>
-      <c r="F106" s="29"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="32"/>
-      <c r="AD106" s="23"/>
-      <c r="AF106" s="23"/>
-      <c r="AG106" s="23"/>
-      <c r="AH106" s="33"/>
-      <c r="AI106" s="23"/>
-      <c r="AJ106" s="23"/>
-      <c r="AK106" s="23"/>
-      <c r="AL106" s="34"/>
-      <c r="AM106" s="35"/>
-    </row>
-    <row r="107" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="D107" s="23"/>
-      <c r="F107" s="29"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="32"/>
-      <c r="AD107" s="23"/>
-      <c r="AF107" s="23"/>
-      <c r="AG107" s="23"/>
-      <c r="AH107" s="33"/>
-      <c r="AI107" s="23"/>
-      <c r="AJ107" s="23"/>
-      <c r="AK107" s="23"/>
-      <c r="AL107" s="34"/>
-      <c r="AM107" s="35"/>
-    </row>
-    <row r="108" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="D108" s="23"/>
-      <c r="F108" s="29"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="32"/>
-      <c r="AD108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="33"/>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="34"/>
-      <c r="AM108" s="35"/>
-    </row>
-    <row r="109" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="D109" s="23"/>
-      <c r="F109" s="29"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="32"/>
-      <c r="AD109" s="23"/>
-      <c r="AF109" s="23"/>
-      <c r="AG109" s="23"/>
-      <c r="AH109" s="33"/>
-      <c r="AI109" s="23"/>
-      <c r="AJ109" s="23"/>
-      <c r="AK109" s="23"/>
-      <c r="AL109" s="34"/>
-      <c r="AM109" s="35"/>
-    </row>
-    <row r="110" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="D110" s="23"/>
-      <c r="F110" s="29"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="32"/>
-      <c r="AD110" s="23"/>
-      <c r="AF110" s="23"/>
-      <c r="AG110" s="23"/>
-      <c r="AH110" s="33"/>
-      <c r="AI110" s="23"/>
-      <c r="AJ110" s="23"/>
-      <c r="AK110" s="23"/>
-      <c r="AL110" s="34"/>
-      <c r="AM110" s="35"/>
-    </row>
-    <row r="111" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="D111" s="23"/>
-      <c r="F111" s="29"/>
-      <c r="J111" s="30"/>
-      <c r="L111" s="31"/>
-      <c r="M111" s="32"/>
-      <c r="AD111" s="23"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="23"/>
-      <c r="AH111" s="33"/>
-      <c r="AI111" s="23"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="23"/>
-      <c r="AL111" s="34"/>
-      <c r="AM111" s="35"/>
-    </row>
-    <row r="112" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="D112" s="23"/>
-      <c r="F112" s="29"/>
-      <c r="J112" s="30"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="32"/>
-      <c r="AD112" s="23"/>
-      <c r="AF112" s="23"/>
-      <c r="AG112" s="23"/>
-      <c r="AH112" s="33"/>
-      <c r="AI112" s="23"/>
-      <c r="AJ112" s="23"/>
-      <c r="AK112" s="23"/>
-      <c r="AL112" s="34"/>
-      <c r="AM112" s="35"/>
-    </row>
-    <row r="113" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="D113" s="23"/>
-      <c r="F113" s="29"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="32"/>
-      <c r="AD113" s="23"/>
-      <c r="AF113" s="23"/>
-      <c r="AG113" s="23"/>
-      <c r="AH113" s="33"/>
-      <c r="AI113" s="23"/>
-      <c r="AJ113" s="23"/>
-      <c r="AK113" s="23"/>
-      <c r="AL113" s="34"/>
-      <c r="AM113" s="35"/>
-    </row>
-    <row r="114" spans="1:39" s="26" customFormat="1" ht="78.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="28"/>
-      <c r="D114" s="23"/>
-      <c r="F114" s="29"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="32"/>
-      <c r="AD114" s="23"/>
-      <c r="AF114" s="23"/>
-      <c r="AG114" s="23"/>
-      <c r="AH114" s="33"/>
-      <c r="AI114" s="23"/>
-      <c r="AJ114" s="23"/>
-      <c r="AK114" s="23"/>
-      <c r="AL114" s="34"/>
-      <c r="AM114" s="35"/>
-    </row>
-    <row r="115" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28"/>
-      <c r="D115" s="23"/>
-      <c r="F115" s="29"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="32"/>
-      <c r="AD115" s="23"/>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="23"/>
-      <c r="AH115" s="33"/>
-      <c r="AI115" s="23"/>
-      <c r="AJ115" s="23"/>
-      <c r="AK115" s="23"/>
-      <c r="AL115" s="34"/>
-      <c r="AM115" s="35"/>
-    </row>
-    <row r="116" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
-      <c r="D116" s="23"/>
-      <c r="F116" s="29"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="32"/>
-      <c r="AD116" s="23"/>
-      <c r="AF116" s="23"/>
-      <c r="AG116" s="23"/>
-      <c r="AH116" s="33"/>
-      <c r="AI116" s="23"/>
-      <c r="AJ116" s="23"/>
-      <c r="AK116" s="23"/>
-      <c r="AL116" s="34"/>
-      <c r="AM116" s="35"/>
-    </row>
-    <row r="117" spans="1:39" s="26" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="D117" s="23"/>
-      <c r="F117" s="29"/>
-      <c r="J117" s="30"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="32"/>
-      <c r="AD117" s="23"/>
-      <c r="AF117" s="23"/>
-      <c r="AG117" s="23"/>
-      <c r="AH117" s="33"/>
-      <c r="AI117" s="23"/>
-      <c r="AJ117" s="23"/>
-      <c r="AK117" s="23"/>
-      <c r="AL117" s="34"/>
-      <c r="AM117" s="35"/>
-    </row>
-    <row r="118" spans="1:39" s="26" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="D118" s="23"/>
-      <c r="F118" s="29"/>
-      <c r="J118" s="30"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="32"/>
-      <c r="AD118" s="23"/>
-      <c r="AF118" s="23"/>
-      <c r="AG118" s="23"/>
-      <c r="AH118" s="33"/>
-      <c r="AI118" s="23"/>
-      <c r="AJ118" s="23"/>
-      <c r="AK118" s="23"/>
-      <c r="AL118" s="34"/>
-      <c r="AM118" s="35"/>
-    </row>
-    <row r="119" spans="1:39" s="26" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="D119" s="23"/>
-      <c r="F119" s="29"/>
-      <c r="J119" s="30"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="32"/>
-      <c r="AD119" s="23"/>
-      <c r="AF119" s="23"/>
-      <c r="AG119" s="23"/>
-      <c r="AH119" s="33"/>
-      <c r="AI119" s="23"/>
-      <c r="AJ119" s="23"/>
-      <c r="AK119" s="23"/>
-      <c r="AL119" s="34"/>
-      <c r="AM119" s="35"/>
-    </row>
-    <row r="120" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AL84" s="39">
+        <v>4.59</v>
+      </c>
+      <c r="AM84" s="40">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M85" s="19"/>
+      <c r="N85" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P85" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE85" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF85" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG85" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH85" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI85" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ85" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AK85" s="13">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AL85" s="39">
+        <v>4.59</v>
+      </c>
+      <c r="AM85" s="40">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="L86" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P86" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE86" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF86" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG86" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH86" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI86" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ86" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AK86" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AL86" s="39">
+        <v>4.59</v>
+      </c>
+      <c r="AM86" s="40">
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O87" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P87" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE87" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF87" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG87" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH87" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI87" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ87" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK87" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL87" s="39">
+        <v>5.78</v>
+      </c>
+      <c r="AM87" s="40">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="I88" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P88" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE88" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF88" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG88" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH88" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI88" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ88" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AK88" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AL88" s="39">
+        <v>4.97</v>
+      </c>
+      <c r="AM88" s="40">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M89" s="19"/>
+      <c r="N89" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P89" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE89" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF89" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG89" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH89" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI89" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="13">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AL89" s="39">
+        <v>4.97</v>
+      </c>
+      <c r="AM89" s="40">
+        <v>49.699999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="12"/>
+      <c r="I90" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M90" s="19"/>
+      <c r="N90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P90" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF90" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG90" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH90" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI90" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ90" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AK90" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AL90" s="39">
+        <v>4.97</v>
+      </c>
+      <c r="AM90" s="40">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M91" s="19"/>
+      <c r="N91" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P91" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+      <c r="AC91" s="12"/>
+      <c r="AD91" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG91" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH91" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI91" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ91" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK91" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL91" s="39">
+        <v>5.59</v>
+      </c>
+      <c r="AM91" s="40">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P92" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE92" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF92" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG92" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH92" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI92" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ92" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK92" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL92" s="39">
+        <v>5.37</v>
+      </c>
+      <c r="AM92" s="40">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M93" s="19"/>
+      <c r="N93" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P93" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="15">
+        <v>14</v>
+      </c>
+      <c r="AE93" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF93" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG93" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH93" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI93" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ93" s="13">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AK93" s="13">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AL93" s="39">
+        <v>4.93</v>
+      </c>
+      <c r="AM93" s="40">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M94" s="19"/>
+      <c r="N94" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P94" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="15">
+        <v>14</v>
+      </c>
+      <c r="AE94" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF94" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG94" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH94" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI94" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ94" s="13">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AK94" s="13">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AL94" s="39">
+        <v>4.93</v>
+      </c>
+      <c r="AM94" s="40">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" s="12"/>
+      <c r="I95" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M95" s="19"/>
+      <c r="N95" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O95" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P95" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE95" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF95" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG95" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH95" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI95" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ95" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK95" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL95" s="39">
+        <v>5.65</v>
+      </c>
+      <c r="AM95" s="40">
+        <v>16.950000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="I96" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M96" s="19"/>
+      <c r="N96" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P96" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF96" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG96" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH96" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI96" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ96" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK96" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL96" s="39">
+        <v>6.13</v>
+      </c>
+      <c r="AM96" s="40">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M97" s="19"/>
+      <c r="N97" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P97" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE97" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF97" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG97" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH97" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI97" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ97" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK97" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL97" s="39">
+        <v>6.88</v>
+      </c>
+      <c r="AM97" s="40">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H98" s="12"/>
+      <c r="I98" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L98" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M98" s="19"/>
+      <c r="N98" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P98" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE98" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF98" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG98" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH98" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI98" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ98" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK98" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL98" s="39">
+        <v>6.2</v>
+      </c>
+      <c r="AM98" s="40">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M99" s="19"/>
+      <c r="N99" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O99" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P99" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF99" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG99" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH99" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI99" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ99" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK99" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL99" s="39">
+        <v>6.2</v>
+      </c>
+      <c r="AM99" s="40">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M100" s="19"/>
+      <c r="N100" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P100" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE100" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF100" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG100" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH100" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI100" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ100" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AK100" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL100" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM100" s="40">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L101" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M101" s="19"/>
+      <c r="N101" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O101" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P101" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="12"/>
+      <c r="AF101" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG101" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH101" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI101" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK101" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL101" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM101" s="40">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H102" s="12"/>
+      <c r="I102" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M102" s="19"/>
+      <c r="N102" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O102" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P102" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE102" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF102" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG102" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH102" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI102" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ102" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AK102" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AL102" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM102" s="40">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="I103" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M103" s="19"/>
+      <c r="N103" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O103" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P103" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="15">
+        <v>7</v>
+      </c>
+      <c r="AE103" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF103" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG103" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH103" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI103" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ103" s="13">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AK103" s="13">
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="AL103" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM103" s="40">
+        <v>34.300000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M104" s="19"/>
+      <c r="N104" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P104" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE104" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF104" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG104" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH104" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI104" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ104" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK104" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL104" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM104" s="40">
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H105" s="12"/>
+      <c r="I105" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M105" s="19"/>
+      <c r="N105" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P105" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE105" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF105" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG105" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH105" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI105" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ105" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AK105" s="13">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="AL105" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM105" s="40">
+        <v>58.800000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H106" s="12"/>
+      <c r="I106" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M106" s="19"/>
+      <c r="N106" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P106" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE106" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF106" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG106" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH106" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI106" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ106" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AK106" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AL106" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AM106" s="40">
+        <v>53.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H107" s="12"/>
+      <c r="I107" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P107" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE107" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF107" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG107" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH107" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI107" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ107" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AK107" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AL107" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AM107" s="40">
+        <v>53.84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H108" s="12"/>
+      <c r="I108" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M108" s="19"/>
+      <c r="N108" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P108" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE108" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF108" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG108" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH108" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI108" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ108" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AK108" s="13">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AL108" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AM108" s="40">
+        <v>53.84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H109" s="12"/>
+      <c r="I109" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="K109" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="L109" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M109" s="19"/>
+      <c r="N109" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P109" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG109" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH109" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI109" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ109" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK109" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL109" s="39">
+        <v>5.38</v>
+      </c>
+      <c r="AM109" s="40">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" s="12"/>
+      <c r="I110" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O110" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P110" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE110" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF110" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG110" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH110" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI110" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ110" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK110" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL110" s="39">
+        <v>5.38</v>
+      </c>
+      <c r="AM110" s="40">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H111" s="12"/>
+      <c r="I111" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M111" s="19"/>
+      <c r="N111" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O111" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P111" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE111" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF111" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG111" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH111" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI111" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ111" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AK111" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AL111" s="39">
+        <v>5.38</v>
+      </c>
+      <c r="AM111" s="40">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="12"/>
+      <c r="I112" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M112" s="19"/>
+      <c r="N112" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P112" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE112" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF112" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG112" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH112" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI112" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ112" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK112" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL112" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AM112" s="40">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M113" s="19"/>
+      <c r="N113" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P113" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE113" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF113" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG113" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH113" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI113" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ113" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK113" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL113" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AM113" s="40">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J114" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M114" s="19"/>
+      <c r="N114" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O114" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P114" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE114" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF114" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG114" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH114" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI114" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ114" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AK114" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL114" s="39">
+        <v>5.18</v>
+      </c>
+      <c r="AM114" s="40">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H115" s="12"/>
+      <c r="I115" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="M115" s="19"/>
+      <c r="N115" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P115" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE115" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF115" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG115" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH115" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI115" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ115" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK115" s="13">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AL115" s="39">
+        <v>5.98</v>
+      </c>
+      <c r="AM115" s="40">
+        <v>29.900000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="M116" s="19"/>
+      <c r="N116" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P116" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE116" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF116" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG116" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH116" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI116" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ116" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK116" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL116" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="AM116" s="40">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L117" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="M117" s="19"/>
+      <c r="N117" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O117" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P117" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="12"/>
+      <c r="AC117" s="12"/>
+      <c r="AD117" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE117" s="12"/>
+      <c r="AF117" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG117" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH117" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI117" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ117" s="13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK117" s="13">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="AL117" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="AM117" s="40">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="12"/>
+      <c r="I118" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J118" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="M118" s="19"/>
+      <c r="N118" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P118" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12"/>
+      <c r="AC118" s="12"/>
+      <c r="AD118" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE118" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF118" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG118" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH118" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI118" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ118" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK118" s="13">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AL118" s="39">
+        <v>5.08</v>
+      </c>
+      <c r="AM118" s="40">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J119" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="M119" s="19"/>
+      <c r="N119" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O119" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P119" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="12"/>
+      <c r="AC119" s="12"/>
+      <c r="AD119" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE119" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF119" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG119" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH119" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI119" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ119" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK119" s="13">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AL119" s="39">
+        <v>5.08</v>
+      </c>
+      <c r="AM119" s="40">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28"/>
       <c r="D120" s="23"/>
       <c r="F120" s="29"/>
@@ -19592,7 +24074,7 @@
       <c r="AL120" s="34"/>
       <c r="AM120" s="35"/>
     </row>
-    <row r="121" spans="1:39" s="26" customFormat="1" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
       <c r="D121" s="23"/>
       <c r="F121" s="29"/>
@@ -19609,7 +24091,7 @@
       <c r="AL121" s="34"/>
       <c r="AM121" s="35"/>
     </row>
-    <row r="122" spans="1:39" s="26" customFormat="1" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
       <c r="D122" s="23"/>
       <c r="F122" s="29"/>
@@ -19626,12 +24108,13 @@
       <c r="AL122" s="34"/>
       <c r="AM122" s="35"/>
     </row>
-    <row r="123" spans="1:39" s="26" customFormat="1" ht="85.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28"/>
       <c r="D123" s="23"/>
       <c r="F123" s="29"/>
       <c r="J123" s="30"/>
-      <c r="L123" s="31"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
       <c r="M123" s="32"/>
       <c r="AD123" s="23"/>
       <c r="AF123" s="23"/>
@@ -19643,7 +24126,7 @@
       <c r="AL123" s="34"/>
       <c r="AM123" s="35"/>
     </row>
-    <row r="124" spans="1:39" s="26" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="D124" s="23"/>
       <c r="F124" s="29"/>
@@ -19660,7 +24143,7 @@
       <c r="AL124" s="34"/>
       <c r="AM124" s="35"/>
     </row>
-    <row r="125" spans="1:39" s="26" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28"/>
       <c r="D125" s="23"/>
       <c r="F125" s="29"/>
@@ -19678,7 +24161,7 @@
       <c r="AL125" s="34"/>
       <c r="AM125" s="35"/>
     </row>
-    <row r="126" spans="1:39" s="26" customFormat="1" ht="85.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="D126" s="23"/>
       <c r="F126" s="29"/>
@@ -19695,13 +24178,12 @@
       <c r="AL126" s="34"/>
       <c r="AM126" s="35"/>
     </row>
-    <row r="127" spans="1:39" s="26" customFormat="1" ht="90.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28"/>
       <c r="D127" s="23"/>
       <c r="F127" s="29"/>
       <c r="J127" s="30"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
+      <c r="L127" s="31"/>
       <c r="M127" s="32"/>
       <c r="AD127" s="23"/>
       <c r="AF127" s="23"/>
@@ -19713,7 +24195,7 @@
       <c r="AL127" s="34"/>
       <c r="AM127" s="35"/>
     </row>
-    <row r="128" spans="1:39" s="26" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28"/>
       <c r="D128" s="23"/>
       <c r="F128" s="29"/>
@@ -19730,7 +24212,7 @@
       <c r="AL128" s="34"/>
       <c r="AM128" s="35"/>
     </row>
-    <row r="129" spans="1:39" s="26" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28"/>
       <c r="D129" s="23"/>
       <c r="F129" s="29"/>
@@ -19747,7 +24229,7 @@
       <c r="AL129" s="34"/>
       <c r="AM129" s="35"/>
     </row>
-    <row r="130" spans="1:39" s="26" customFormat="1" ht="85.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28"/>
       <c r="D130" s="23"/>
       <c r="F130" s="29"/>
@@ -19764,7 +24246,7 @@
       <c r="AL130" s="34"/>
       <c r="AM130" s="35"/>
     </row>
-    <row r="131" spans="1:39" s="26" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
       <c r="D131" s="23"/>
       <c r="F131" s="29"/>
@@ -19781,12 +24263,13 @@
       <c r="AL131" s="34"/>
       <c r="AM131" s="35"/>
     </row>
-    <row r="132" spans="1:39" s="26" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28"/>
       <c r="D132" s="23"/>
       <c r="F132" s="29"/>
       <c r="J132" s="30"/>
-      <c r="L132" s="31"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
       <c r="M132" s="32"/>
       <c r="AD132" s="23"/>
       <c r="AF132" s="23"/>
@@ -19798,12 +24281,13 @@
       <c r="AL132" s="34"/>
       <c r="AM132" s="35"/>
     </row>
-    <row r="133" spans="1:39" s="26" customFormat="1" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="D133" s="23"/>
       <c r="F133" s="29"/>
       <c r="J133" s="30"/>
-      <c r="L133" s="31"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
       <c r="M133" s="32"/>
       <c r="AD133" s="23"/>
       <c r="AF133" s="23"/>
@@ -19815,7 +24299,7 @@
       <c r="AL133" s="34"/>
       <c r="AM133" s="35"/>
     </row>
-    <row r="134" spans="1:39" s="26" customFormat="1" ht="93.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28"/>
       <c r="D134" s="23"/>
       <c r="F134" s="29"/>
@@ -19833,13 +24317,12 @@
       <c r="AL134" s="34"/>
       <c r="AM134" s="35"/>
     </row>
-    <row r="135" spans="1:39" s="26" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="D135" s="23"/>
       <c r="F135" s="29"/>
       <c r="J135" s="30"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36"/>
+      <c r="L135" s="31"/>
       <c r="M135" s="32"/>
       <c r="AD135" s="23"/>
       <c r="AF135" s="23"/>
@@ -19851,7 +24334,7 @@
       <c r="AL135" s="34"/>
       <c r="AM135" s="35"/>
     </row>
-    <row r="136" spans="1:39" s="26" customFormat="1" ht="103.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="D136" s="23"/>
       <c r="F136" s="29"/>
@@ -19869,12 +24352,13 @@
       <c r="AL136" s="34"/>
       <c r="AM136" s="35"/>
     </row>
-    <row r="137" spans="1:39" s="26" customFormat="1" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="D137" s="23"/>
       <c r="F137" s="29"/>
       <c r="J137" s="30"/>
-      <c r="L137" s="31"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
       <c r="M137" s="32"/>
       <c r="AD137" s="23"/>
       <c r="AF137" s="23"/>
@@ -19886,13 +24370,12 @@
       <c r="AL137" s="34"/>
       <c r="AM137" s="35"/>
     </row>
-    <row r="138" spans="1:39" s="26" customFormat="1" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="D138" s="23"/>
       <c r="F138" s="29"/>
       <c r="J138" s="30"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
+      <c r="L138" s="31"/>
       <c r="M138" s="32"/>
       <c r="AD138" s="23"/>
       <c r="AF138" s="23"/>
@@ -19904,13 +24387,12 @@
       <c r="AL138" s="34"/>
       <c r="AM138" s="35"/>
     </row>
-    <row r="139" spans="1:39" s="26" customFormat="1" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="D139" s="23"/>
       <c r="F139" s="29"/>
       <c r="J139" s="30"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="36"/>
+      <c r="L139" s="31"/>
       <c r="M139" s="32"/>
       <c r="AD139" s="23"/>
       <c r="AF139" s="23"/>
@@ -19922,7 +24404,7 @@
       <c r="AL139" s="34"/>
       <c r="AM139" s="35"/>
     </row>
-    <row r="140" spans="1:39" s="26" customFormat="1" ht="105.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="D140" s="23"/>
       <c r="F140" s="29"/>
@@ -19939,10 +24421,10 @@
       <c r="AL140" s="34"/>
       <c r="AM140" s="35"/>
     </row>
-    <row r="141" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="D141" s="23"/>
-      <c r="F141" s="29"/>
+      <c r="F141" s="23"/>
       <c r="J141" s="30"/>
       <c r="L141" s="31"/>
       <c r="M141" s="32"/>
@@ -19956,10 +24438,10 @@
       <c r="AL141" s="34"/>
       <c r="AM141" s="35"/>
     </row>
-    <row r="142" spans="1:39" s="26" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="D142" s="23"/>
-      <c r="F142" s="29"/>
+      <c r="F142" s="23"/>
       <c r="J142" s="30"/>
       <c r="L142" s="31"/>
       <c r="M142" s="32"/>
@@ -19973,7 +24455,7 @@
       <c r="AL142" s="34"/>
       <c r="AM142" s="35"/>
     </row>
-    <row r="143" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="D143" s="23"/>
       <c r="F143" s="23"/>
@@ -19990,7 +24472,7 @@
       <c r="AL143" s="34"/>
       <c r="AM143" s="35"/>
     </row>
-    <row r="144" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="D144" s="23"/>
       <c r="F144" s="23"/>
@@ -20007,7 +24489,7 @@
       <c r="AL144" s="34"/>
       <c r="AM144" s="35"/>
     </row>
-    <row r="145" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="D145" s="23"/>
       <c r="F145" s="23"/>
@@ -20024,7 +24506,7 @@
       <c r="AL145" s="34"/>
       <c r="AM145" s="35"/>
     </row>
-    <row r="146" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="D146" s="23"/>
       <c r="F146" s="23"/>
@@ -20041,7 +24523,7 @@
       <c r="AL146" s="34"/>
       <c r="AM146" s="35"/>
     </row>
-    <row r="147" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="D147" s="23"/>
       <c r="F147" s="23"/>
@@ -20058,7 +24540,7 @@
       <c r="AL147" s="34"/>
       <c r="AM147" s="35"/>
     </row>
-    <row r="148" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="D148" s="23"/>
       <c r="F148" s="23"/>
@@ -20075,7 +24557,7 @@
       <c r="AL148" s="34"/>
       <c r="AM148" s="35"/>
     </row>
-    <row r="149" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="D149" s="23"/>
       <c r="F149" s="23"/>
@@ -20092,7 +24574,7 @@
       <c r="AL149" s="34"/>
       <c r="AM149" s="35"/>
     </row>
-    <row r="150" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28"/>
       <c r="D150" s="23"/>
       <c r="F150" s="23"/>
@@ -20109,40 +24591,8 @@
       <c r="AL150" s="34"/>
       <c r="AM150" s="35"/>
     </row>
-    <row r="151" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="D151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="J151" s="30"/>
-      <c r="L151" s="31"/>
-      <c r="M151" s="32"/>
-      <c r="AD151" s="23"/>
-      <c r="AF151" s="23"/>
-      <c r="AG151" s="23"/>
-      <c r="AH151" s="33"/>
-      <c r="AI151" s="23"/>
-      <c r="AJ151" s="23"/>
-      <c r="AK151" s="23"/>
-      <c r="AL151" s="34"/>
-      <c r="AM151" s="35"/>
-    </row>
-    <row r="152" spans="1:39" s="26" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="D152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="J152" s="30"/>
-      <c r="L152" s="31"/>
-      <c r="M152" s="32"/>
-      <c r="AD152" s="23"/>
-      <c r="AF152" s="23"/>
-      <c r="AG152" s="23"/>
-      <c r="AH152" s="33"/>
-      <c r="AI152" s="23"/>
-      <c r="AJ152" s="23"/>
-      <c r="AK152" s="23"/>
-      <c r="AL152" s="34"/>
-      <c r="AM152" s="35"/>
-    </row>
+    <row r="151" spans="1:39" ht="115.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:39" ht="115.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:AM82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -20161,7 +24611,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="AM38" sqref="A2:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Excel/Bailey/Bailey — техничка.xlsx
+++ b/Excel/Bailey/Bailey — техничка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Bailey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB14325-7EFF-41D0-8F95-6460D75268A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFB49E-3A6D-4D56-9D4D-83E748B98CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF93E06-745E-43BB-B362-39D65D7A1090}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="610">
   <si>
     <t>Артикул на этикетке</t>
   </si>
@@ -8076,6 +8076,1806 @@
         <a:xfrm>
           <a:off x="4264025" y="12482476"/>
           <a:ext cx="1778000" cy="1124023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="_I3_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5805C3C5-2CF5-43BC-AE96-353A5FACC0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="841375"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="_I4_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4320C4CB-9343-4E0D-B7EC-52A18E44098B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="2613025"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="_I5_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A006CC-3EE0-477A-AE3B-3EC7B7D1BD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="4384675"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="_I6_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D6753C-0028-4581-8620-B73FF26E56B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="6156325"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="_I7_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9628C77E-03BD-4E6B-8155-603381803353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="7927975"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="_I8_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02F503C-2BFA-43EF-AABC-03A42BCA82AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="9699625"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="_I9_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B6340D-340B-42C5-A6F2-ACE0A87202CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="11471275"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="_I10_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0857C34-B27A-4200-9EBE-0E150A6A01C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="13242925"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="_I11_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1524813-F655-4C7F-8DF5-07AB86E84D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="15014575"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="_I12_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CC4D63-2605-45B1-9A3C-A0F054D40B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="16786225"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="_I13_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A756F78C-3780-4D4D-A4E5-0FB01656875D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId129">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="18557875"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="_I14_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DE2C4A-F900-47A0-B619-216E5068C043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="20329525"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="_I15_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B940D1B-0A4F-4AC0-98E1-44E8CC818123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId131">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="22101175"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="_I16_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CC8C5F-8D5E-485E-A761-B4B344557711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="23872825"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="_I17_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564676E0-B66B-4098-849E-D78B23238B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId133">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="25644475"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="_I18_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F9DF3-B973-4160-BD93-1FD4C252AF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="27416125"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="_I19_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B768F1C-9282-4BCB-A574-8B4D310C5FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId135">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="29187775"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="_I20_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5777FD0-B951-4575-88E5-EC6349D89F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="30959425"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="_I21_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD5387F-51EB-4662-8471-F1D6F6D97DED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId137">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="32731075"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="_I22_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7195C7-6E0A-480A-929D-2374ABD2EAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="34502725"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="_I23_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD8E412-6FB8-4806-AAB2-E3B996A4A112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId139">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="36274375"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="_I24_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF8A8C8-C8F0-4FAC-9D6A-B677C1AFF611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="38046025"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="_I25_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A37E061-5B20-4536-AFB5-6EC95EF451D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId141">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="39817675"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="_I26_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB02CF5-A178-4D89-9CB4-7446D355793B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="41589325"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="_I27_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E93EE0F-67F5-4842-B917-45F51AB7EEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId143">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="43360975"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="_I28_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACCDB67-AC86-44F5-888F-148C34514668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId144">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="45132625"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="_I29_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9B3777-92D4-4F91-9626-25EF3917EACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="46904275"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="_I30_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1D2215-EB5E-4E39-B98E-5CB64BB0DE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="48675925"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="_I31_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F77552B-6501-4490-897B-64900DF28C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="50447575"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="_I32_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0899D338-6098-4301-9AFC-892E0E1B6D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId148">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="52219225"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="_I33_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6606411-DFCC-4906-B232-E918A626A714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId149">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="53990875"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="_I34_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC148F7F-DE3D-4A99-A66E-096BFD7636FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="55762525"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="_I35_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959A1129-1D4B-4C58-810D-4EE164A7C7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="57534175"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="_I36_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83829639-287F-4D68-A0B7-F084664E4FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId152">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="59305825"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="_I37_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFE50DF-9C92-4966-BA73-AD290E9AD3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId153">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="61077475"/>
+          <a:ext cx="1746250" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>1758950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="_I38_autopaste">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CB05A8-4C59-4495-97C0-577670E3869D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId154">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="62849125"/>
+          <a:ext cx="1746250" cy="1746250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12597,11 +14397,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AM152"/>
+  <dimension ref="A1:AM262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24057,542 +25857,3317 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="120" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="D120" s="23"/>
-      <c r="F120" s="29"/>
-      <c r="J120" s="30"/>
-      <c r="L120" s="31"/>
-      <c r="M120" s="32"/>
-      <c r="AD120" s="23"/>
-      <c r="AF120" s="23"/>
-      <c r="AG120" s="23"/>
-      <c r="AH120" s="33"/>
-      <c r="AI120" s="23"/>
-      <c r="AJ120" s="23"/>
-      <c r="AK120" s="23"/>
-      <c r="AL120" s="34"/>
-      <c r="AM120" s="35"/>
-    </row>
-    <row r="121" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="D121" s="23"/>
-      <c r="F121" s="29"/>
-      <c r="J121" s="30"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="32"/>
-      <c r="AD121" s="23"/>
-      <c r="AF121" s="23"/>
-      <c r="AG121" s="23"/>
-      <c r="AH121" s="33"/>
-      <c r="AI121" s="23"/>
-      <c r="AJ121" s="23"/>
-      <c r="AK121" s="23"/>
-      <c r="AL121" s="34"/>
-      <c r="AM121" s="35"/>
-    </row>
-    <row r="122" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="28"/>
-      <c r="D122" s="23"/>
-      <c r="F122" s="29"/>
-      <c r="J122" s="30"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="32"/>
-      <c r="AD122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="33"/>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="34"/>
-      <c r="AM122" s="35"/>
-    </row>
-    <row r="123" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="28"/>
-      <c r="D123" s="23"/>
-      <c r="F123" s="29"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="36"/>
-      <c r="M123" s="32"/>
-      <c r="AD123" s="23"/>
-      <c r="AF123" s="23"/>
-      <c r="AG123" s="23"/>
-      <c r="AH123" s="33"/>
-      <c r="AI123" s="23"/>
-      <c r="AJ123" s="23"/>
-      <c r="AK123" s="23"/>
-      <c r="AL123" s="34"/>
-      <c r="AM123" s="35"/>
-    </row>
-    <row r="124" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="D124" s="23"/>
-      <c r="F124" s="29"/>
-      <c r="J124" s="30"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="32"/>
-      <c r="AD124" s="23"/>
-      <c r="AF124" s="23"/>
-      <c r="AG124" s="23"/>
-      <c r="AH124" s="33"/>
-      <c r="AI124" s="23"/>
-      <c r="AJ124" s="23"/>
-      <c r="AK124" s="23"/>
-      <c r="AL124" s="34"/>
-      <c r="AM124" s="35"/>
-    </row>
-    <row r="125" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="D125" s="23"/>
-      <c r="F125" s="29"/>
-      <c r="J125" s="30"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="32"/>
-      <c r="AD125" s="23"/>
-      <c r="AF125" s="23"/>
-      <c r="AG125" s="23"/>
-      <c r="AH125" s="33"/>
-      <c r="AI125" s="23"/>
-      <c r="AJ125" s="23"/>
-      <c r="AK125" s="23"/>
-      <c r="AL125" s="34"/>
-      <c r="AM125" s="35"/>
-    </row>
-    <row r="126" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="28"/>
-      <c r="D126" s="23"/>
-      <c r="F126" s="29"/>
-      <c r="J126" s="30"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="32"/>
-      <c r="AD126" s="23"/>
-      <c r="AF126" s="23"/>
-      <c r="AG126" s="23"/>
-      <c r="AH126" s="33"/>
-      <c r="AI126" s="23"/>
-      <c r="AJ126" s="23"/>
-      <c r="AK126" s="23"/>
-      <c r="AL126" s="34"/>
-      <c r="AM126" s="35"/>
-    </row>
-    <row r="127" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
-      <c r="D127" s="23"/>
-      <c r="F127" s="29"/>
-      <c r="J127" s="30"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="32"/>
-      <c r="AD127" s="23"/>
-      <c r="AF127" s="23"/>
-      <c r="AG127" s="23"/>
-      <c r="AH127" s="33"/>
-      <c r="AI127" s="23"/>
-      <c r="AJ127" s="23"/>
-      <c r="AK127" s="23"/>
-      <c r="AL127" s="34"/>
-      <c r="AM127" s="35"/>
-    </row>
-    <row r="128" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="D128" s="23"/>
-      <c r="F128" s="29"/>
-      <c r="J128" s="30"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="32"/>
-      <c r="AD128" s="23"/>
-      <c r="AF128" s="23"/>
-      <c r="AG128" s="23"/>
-      <c r="AH128" s="33"/>
-      <c r="AI128" s="23"/>
-      <c r="AJ128" s="23"/>
-      <c r="AK128" s="23"/>
-      <c r="AL128" s="34"/>
-      <c r="AM128" s="35"/>
-    </row>
-    <row r="129" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
-      <c r="D129" s="23"/>
-      <c r="F129" s="29"/>
-      <c r="J129" s="30"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="32"/>
-      <c r="AD129" s="23"/>
-      <c r="AF129" s="23"/>
-      <c r="AG129" s="23"/>
-      <c r="AH129" s="33"/>
-      <c r="AI129" s="23"/>
-      <c r="AJ129" s="23"/>
-      <c r="AK129" s="23"/>
-      <c r="AL129" s="34"/>
-      <c r="AM129" s="35"/>
-    </row>
-    <row r="130" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="28"/>
-      <c r="D130" s="23"/>
-      <c r="F130" s="29"/>
-      <c r="J130" s="30"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="32"/>
-      <c r="AD130" s="23"/>
-      <c r="AF130" s="23"/>
-      <c r="AG130" s="23"/>
-      <c r="AH130" s="33"/>
-      <c r="AI130" s="23"/>
-      <c r="AJ130" s="23"/>
-      <c r="AK130" s="23"/>
-      <c r="AL130" s="34"/>
-      <c r="AM130" s="35"/>
-    </row>
-    <row r="131" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
-      <c r="D131" s="23"/>
-      <c r="F131" s="29"/>
-      <c r="J131" s="30"/>
-      <c r="L131" s="31"/>
-      <c r="M131" s="32"/>
-      <c r="AD131" s="23"/>
-      <c r="AF131" s="23"/>
-      <c r="AG131" s="23"/>
-      <c r="AH131" s="33"/>
-      <c r="AI131" s="23"/>
-      <c r="AJ131" s="23"/>
-      <c r="AK131" s="23"/>
-      <c r="AL131" s="34"/>
-      <c r="AM131" s="35"/>
-    </row>
-    <row r="132" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
-      <c r="D132" s="23"/>
-      <c r="F132" s="29"/>
-      <c r="J132" s="30"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="32"/>
-      <c r="AD132" s="23"/>
-      <c r="AF132" s="23"/>
-      <c r="AG132" s="23"/>
-      <c r="AH132" s="33"/>
-      <c r="AI132" s="23"/>
-      <c r="AJ132" s="23"/>
-      <c r="AK132" s="23"/>
-      <c r="AL132" s="34"/>
-      <c r="AM132" s="35"/>
-    </row>
-    <row r="133" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="D133" s="23"/>
-      <c r="F133" s="29"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="32"/>
-      <c r="AD133" s="23"/>
-      <c r="AF133" s="23"/>
-      <c r="AG133" s="23"/>
-      <c r="AH133" s="33"/>
-      <c r="AI133" s="23"/>
-      <c r="AJ133" s="23"/>
-      <c r="AK133" s="23"/>
-      <c r="AL133" s="34"/>
-      <c r="AM133" s="35"/>
-    </row>
-    <row r="134" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="28"/>
-      <c r="D134" s="23"/>
-      <c r="F134" s="29"/>
-      <c r="J134" s="30"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="32"/>
-      <c r="AD134" s="23"/>
-      <c r="AF134" s="23"/>
-      <c r="AG134" s="23"/>
-      <c r="AH134" s="33"/>
-      <c r="AI134" s="23"/>
-      <c r="AJ134" s="23"/>
-      <c r="AK134" s="23"/>
-      <c r="AL134" s="34"/>
-      <c r="AM134" s="35"/>
-    </row>
-    <row r="135" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
-      <c r="D135" s="23"/>
-      <c r="F135" s="29"/>
-      <c r="J135" s="30"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="32"/>
-      <c r="AD135" s="23"/>
-      <c r="AF135" s="23"/>
-      <c r="AG135" s="23"/>
-      <c r="AH135" s="33"/>
-      <c r="AI135" s="23"/>
-      <c r="AJ135" s="23"/>
-      <c r="AK135" s="23"/>
-      <c r="AL135" s="34"/>
-      <c r="AM135" s="35"/>
-    </row>
-    <row r="136" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
-      <c r="D136" s="23"/>
-      <c r="F136" s="29"/>
-      <c r="J136" s="30"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="32"/>
-      <c r="AD136" s="23"/>
-      <c r="AF136" s="23"/>
-      <c r="AG136" s="23"/>
-      <c r="AH136" s="33"/>
-      <c r="AI136" s="23"/>
-      <c r="AJ136" s="23"/>
-      <c r="AK136" s="23"/>
-      <c r="AL136" s="34"/>
-      <c r="AM136" s="35"/>
-    </row>
-    <row r="137" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="D137" s="23"/>
-      <c r="F137" s="29"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="32"/>
-      <c r="AD137" s="23"/>
-      <c r="AF137" s="23"/>
-      <c r="AG137" s="23"/>
-      <c r="AH137" s="33"/>
-      <c r="AI137" s="23"/>
-      <c r="AJ137" s="23"/>
-      <c r="AK137" s="23"/>
-      <c r="AL137" s="34"/>
-      <c r="AM137" s="35"/>
-    </row>
-    <row r="138" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="28"/>
-      <c r="D138" s="23"/>
-      <c r="F138" s="29"/>
-      <c r="J138" s="30"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="32"/>
-      <c r="AD138" s="23"/>
-      <c r="AF138" s="23"/>
-      <c r="AG138" s="23"/>
-      <c r="AH138" s="33"/>
-      <c r="AI138" s="23"/>
-      <c r="AJ138" s="23"/>
-      <c r="AK138" s="23"/>
-      <c r="AL138" s="34"/>
-      <c r="AM138" s="35"/>
-    </row>
-    <row r="139" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="28"/>
-      <c r="D139" s="23"/>
-      <c r="F139" s="29"/>
-      <c r="J139" s="30"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="32"/>
-      <c r="AD139" s="23"/>
-      <c r="AF139" s="23"/>
-      <c r="AG139" s="23"/>
-      <c r="AH139" s="33"/>
-      <c r="AI139" s="23"/>
-      <c r="AJ139" s="23"/>
-      <c r="AK139" s="23"/>
-      <c r="AL139" s="34"/>
-      <c r="AM139" s="35"/>
-    </row>
-    <row r="140" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="D140" s="23"/>
-      <c r="F140" s="29"/>
-      <c r="J140" s="30"/>
-      <c r="L140" s="31"/>
-      <c r="M140" s="32"/>
-      <c r="AD140" s="23"/>
-      <c r="AF140" s="23"/>
-      <c r="AG140" s="23"/>
-      <c r="AH140" s="33"/>
-      <c r="AI140" s="23"/>
-      <c r="AJ140" s="23"/>
-      <c r="AK140" s="23"/>
-      <c r="AL140" s="34"/>
-      <c r="AM140" s="35"/>
-    </row>
-    <row r="141" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="D141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="J141" s="30"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="32"/>
-      <c r="AD141" s="23"/>
-      <c r="AF141" s="23"/>
-      <c r="AG141" s="23"/>
-      <c r="AH141" s="33"/>
-      <c r="AI141" s="23"/>
-      <c r="AJ141" s="23"/>
-      <c r="AK141" s="23"/>
-      <c r="AL141" s="34"/>
-      <c r="AM141" s="35"/>
-    </row>
-    <row r="142" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="28"/>
-      <c r="D142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="J142" s="30"/>
-      <c r="L142" s="31"/>
-      <c r="M142" s="32"/>
-      <c r="AD142" s="23"/>
-      <c r="AF142" s="23"/>
-      <c r="AG142" s="23"/>
-      <c r="AH142" s="33"/>
-      <c r="AI142" s="23"/>
-      <c r="AJ142" s="23"/>
-      <c r="AK142" s="23"/>
-      <c r="AL142" s="34"/>
-      <c r="AM142" s="35"/>
-    </row>
-    <row r="143" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="28"/>
-      <c r="D143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="J143" s="30"/>
-      <c r="L143" s="31"/>
-      <c r="M143" s="32"/>
-      <c r="AD143" s="23"/>
-      <c r="AF143" s="23"/>
-      <c r="AG143" s="23"/>
-      <c r="AH143" s="33"/>
-      <c r="AI143" s="23"/>
-      <c r="AJ143" s="23"/>
-      <c r="AK143" s="23"/>
-      <c r="AL143" s="34"/>
-      <c r="AM143" s="35"/>
-    </row>
-    <row r="144" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="28"/>
-      <c r="D144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="J144" s="30"/>
-      <c r="L144" s="31"/>
-      <c r="M144" s="32"/>
-      <c r="AD144" s="23"/>
-      <c r="AF144" s="23"/>
-      <c r="AG144" s="23"/>
-      <c r="AH144" s="33"/>
-      <c r="AI144" s="23"/>
-      <c r="AJ144" s="23"/>
-      <c r="AK144" s="23"/>
-      <c r="AL144" s="34"/>
-      <c r="AM144" s="35"/>
-    </row>
-    <row r="145" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="D145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="J145" s="30"/>
-      <c r="L145" s="31"/>
-      <c r="M145" s="32"/>
-      <c r="AD145" s="23"/>
-      <c r="AF145" s="23"/>
-      <c r="AG145" s="23"/>
-      <c r="AH145" s="33"/>
-      <c r="AI145" s="23"/>
-      <c r="AJ145" s="23"/>
-      <c r="AK145" s="23"/>
-      <c r="AL145" s="34"/>
-      <c r="AM145" s="35"/>
-    </row>
-    <row r="146" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="28"/>
-      <c r="D146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="J146" s="30"/>
-      <c r="L146" s="31"/>
-      <c r="M146" s="32"/>
-      <c r="AD146" s="23"/>
-      <c r="AF146" s="23"/>
-      <c r="AG146" s="23"/>
-      <c r="AH146" s="33"/>
-      <c r="AI146" s="23"/>
-      <c r="AJ146" s="23"/>
-      <c r="AK146" s="23"/>
-      <c r="AL146" s="34"/>
-      <c r="AM146" s="35"/>
-    </row>
-    <row r="147" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="28"/>
-      <c r="D147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="J147" s="30"/>
-      <c r="L147" s="31"/>
-      <c r="M147" s="32"/>
-      <c r="AD147" s="23"/>
-      <c r="AF147" s="23"/>
-      <c r="AG147" s="23"/>
-      <c r="AH147" s="33"/>
-      <c r="AI147" s="23"/>
-      <c r="AJ147" s="23"/>
-      <c r="AK147" s="23"/>
-      <c r="AL147" s="34"/>
-      <c r="AM147" s="35"/>
-    </row>
-    <row r="148" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="28"/>
-      <c r="D148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="J148" s="30"/>
-      <c r="L148" s="31"/>
-      <c r="M148" s="32"/>
-      <c r="AD148" s="23"/>
-      <c r="AF148" s="23"/>
-      <c r="AG148" s="23"/>
-      <c r="AH148" s="33"/>
-      <c r="AI148" s="23"/>
-      <c r="AJ148" s="23"/>
-      <c r="AK148" s="23"/>
-      <c r="AL148" s="34"/>
-      <c r="AM148" s="35"/>
-    </row>
-    <row r="149" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="D149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="J149" s="30"/>
-      <c r="L149" s="31"/>
-      <c r="M149" s="32"/>
-      <c r="AD149" s="23"/>
-      <c r="AF149" s="23"/>
-      <c r="AG149" s="23"/>
-      <c r="AH149" s="33"/>
-      <c r="AI149" s="23"/>
-      <c r="AJ149" s="23"/>
-      <c r="AK149" s="23"/>
-      <c r="AL149" s="34"/>
-      <c r="AM149" s="35"/>
-    </row>
-    <row r="150" spans="1:39" s="26" customFormat="1" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="D150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="J150" s="30"/>
-      <c r="L150" s="31"/>
-      <c r="M150" s="32"/>
-      <c r="AD150" s="23"/>
-      <c r="AF150" s="23"/>
-      <c r="AG150" s="23"/>
-      <c r="AH150" s="33"/>
-      <c r="AI150" s="23"/>
-      <c r="AJ150" s="23"/>
-      <c r="AK150" s="23"/>
-      <c r="AL150" s="34"/>
-      <c r="AM150" s="35"/>
-    </row>
-    <row r="151" spans="1:39" ht="115.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:39" ht="115.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="12"/>
+      <c r="I120" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J120" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="K120" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="L120" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M120" s="19"/>
+      <c r="N120" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12">
+        <v>1</v>
+      </c>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12"/>
+      <c r="AC120" s="12"/>
+      <c r="AD120" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF120" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG120" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH120" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI120" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ120" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK120" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL120" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM120" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="12"/>
+      <c r="I121" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J121" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="K121" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L121" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M121" s="19"/>
+      <c r="N121" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O121" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12">
+        <v>1</v>
+      </c>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="12"/>
+      <c r="AC121" s="12"/>
+      <c r="AD121" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE121" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF121" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG121" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH121" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI121" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ121" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK121" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL121" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM121" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" s="12"/>
+      <c r="I122" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="M122" s="19"/>
+      <c r="N122" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="O122" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12">
+        <v>1</v>
+      </c>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="12"/>
+      <c r="AC122" s="12"/>
+      <c r="AD122" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF122" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG122" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH122" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI122" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ122" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK122" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL122" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM122" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" s="12"/>
+      <c r="I123" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J123" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L123" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="M123" s="19"/>
+      <c r="N123" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O123" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12">
+        <v>1</v>
+      </c>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="12"/>
+      <c r="AC123" s="12"/>
+      <c r="AD123" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE123" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF123" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG123" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH123" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI123" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ123" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK123" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL123" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM123" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H124" s="12"/>
+      <c r="I124" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J124" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L124" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="M124" s="19"/>
+      <c r="N124" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O124" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12">
+        <v>1</v>
+      </c>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+      <c r="AC124" s="12"/>
+      <c r="AD124" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE124" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF124" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG124" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH124" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI124" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ124" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK124" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL124" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM124" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="12"/>
+      <c r="I125" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J125" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="L125" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="M125" s="19"/>
+      <c r="N125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O125" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12">
+        <v>1</v>
+      </c>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="12"/>
+      <c r="AC125" s="12"/>
+      <c r="AD125" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE125" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF125" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG125" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH125" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI125" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ125" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK125" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL125" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM125" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="12"/>
+      <c r="I126" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J126" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L126" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="M126" s="19"/>
+      <c r="N126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O126" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12">
+        <v>1</v>
+      </c>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="12"/>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="12"/>
+      <c r="AC126" s="12"/>
+      <c r="AD126" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF126" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG126" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH126" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI126" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ126" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK126" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL126" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM126" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" s="12"/>
+      <c r="I127" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J127" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L127" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="M127" s="19"/>
+      <c r="N127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O127" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12">
+        <v>1</v>
+      </c>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="12"/>
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="12"/>
+      <c r="AC127" s="12"/>
+      <c r="AD127" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE127" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF127" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG127" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH127" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI127" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ127" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK127" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL127" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM127" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="12"/>
+      <c r="I128" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J128" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L128" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="M128" s="19"/>
+      <c r="N128" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12">
+        <v>1</v>
+      </c>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+      <c r="Z128" s="12"/>
+      <c r="AA128" s="12"/>
+      <c r="AB128" s="12"/>
+      <c r="AC128" s="12"/>
+      <c r="AD128" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE128" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF128" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG128" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH128" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI128" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ128" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK128" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL128" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM128" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J129" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="K129" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L129" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M129" s="19"/>
+      <c r="N129" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O129" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12">
+        <v>1</v>
+      </c>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
+      <c r="AB129" s="12"/>
+      <c r="AC129" s="12"/>
+      <c r="AD129" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE129" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF129" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG129" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH129" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI129" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ129" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK129" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL129" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM129" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="12"/>
+      <c r="I130" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J130" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L130" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="M130" s="19"/>
+      <c r="N130" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O130" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="12"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12">
+        <v>1</v>
+      </c>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="12"/>
+      <c r="AA130" s="12"/>
+      <c r="AB130" s="12"/>
+      <c r="AC130" s="12"/>
+      <c r="AD130" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE130" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF130" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG130" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH130" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI130" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ130" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK130" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL130" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM130" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="I131" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J131" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="L131" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M131" s="19"/>
+      <c r="N131" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12">
+        <v>1</v>
+      </c>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12"/>
+      <c r="AC131" s="12"/>
+      <c r="AD131" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE131" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF131" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG131" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH131" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI131" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ131" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK131" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL131" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM131" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" s="12"/>
+      <c r="I132" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J132" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L132" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M132" s="19"/>
+      <c r="N132" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O132" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12">
+        <v>1</v>
+      </c>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="12"/>
+      <c r="AC132" s="12"/>
+      <c r="AD132" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF132" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG132" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH132" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI132" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ132" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK132" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL132" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM132" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="I133" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J133" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="K133" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="M133" s="19"/>
+      <c r="N133" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O133" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12">
+        <v>1</v>
+      </c>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="12"/>
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="12"/>
+      <c r="AC133" s="12"/>
+      <c r="AD133" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE133" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF133" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG133" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH133" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI133" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ133" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK133" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL133" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM133" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J134" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L134" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M134" s="19"/>
+      <c r="N134" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O134" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12">
+        <v>1</v>
+      </c>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="12"/>
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="12"/>
+      <c r="AC134" s="12"/>
+      <c r="AD134" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE134" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF134" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG134" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH134" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI134" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ134" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK134" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL134" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM134" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" s="12"/>
+      <c r="I135" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J135" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="K135" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L135" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="M135" s="19"/>
+      <c r="N135" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O135" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12">
+        <v>1</v>
+      </c>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="12"/>
+      <c r="AA135" s="12"/>
+      <c r="AB135" s="12"/>
+      <c r="AC135" s="12"/>
+      <c r="AD135" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE135" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF135" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG135" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH135" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI135" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ135" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK135" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL135" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM135" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H136" s="12"/>
+      <c r="I136" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J136" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L136" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M136" s="19"/>
+      <c r="N136" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O136" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12">
+        <v>1</v>
+      </c>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="12"/>
+      <c r="AA136" s="12"/>
+      <c r="AB136" s="12"/>
+      <c r="AC136" s="12"/>
+      <c r="AD136" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF136" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG136" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH136" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI136" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ136" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK136" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL136" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM136" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137" s="12"/>
+      <c r="I137" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J137" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="K137" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L137" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M137" s="19"/>
+      <c r="N137" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12">
+        <v>1</v>
+      </c>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="12"/>
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="12"/>
+      <c r="AC137" s="12"/>
+      <c r="AD137" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE137" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF137" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG137" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH137" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI137" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ137" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK137" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL137" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM137" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J138" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L138" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M138" s="19"/>
+      <c r="N138" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O138" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12">
+        <v>1</v>
+      </c>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="12"/>
+      <c r="AA138" s="12"/>
+      <c r="AB138" s="12"/>
+      <c r="AC138" s="12"/>
+      <c r="AD138" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE138" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF138" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG138" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH138" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI138" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ138" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK138" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL138" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM138" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="12"/>
+      <c r="I139" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J139" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L139" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M139" s="19"/>
+      <c r="N139" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12">
+        <v>1</v>
+      </c>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12"/>
+      <c r="Z139" s="12"/>
+      <c r="AA139" s="12"/>
+      <c r="AB139" s="12"/>
+      <c r="AC139" s="12"/>
+      <c r="AD139" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE139" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF139" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG139" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH139" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI139" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ139" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK139" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL139" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM139" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="12"/>
+      <c r="I140" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J140" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L140" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M140" s="19"/>
+      <c r="N140" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O140" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12">
+        <v>1</v>
+      </c>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="12"/>
+      <c r="AA140" s="12"/>
+      <c r="AB140" s="12"/>
+      <c r="AC140" s="12"/>
+      <c r="AD140" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE140" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF140" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG140" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH140" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI140" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ140" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK140" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL140" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM140" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="I141" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J141" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K141" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L141" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M141" s="19"/>
+      <c r="N141" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12">
+        <v>1</v>
+      </c>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="12"/>
+      <c r="AA141" s="12"/>
+      <c r="AB141" s="12"/>
+      <c r="AC141" s="12"/>
+      <c r="AD141" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE141" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF141" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG141" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH141" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI141" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ141" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK141" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL141" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM141" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="12"/>
+      <c r="I142" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J142" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L142" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M142" s="19"/>
+      <c r="N142" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O142" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12">
+        <v>1</v>
+      </c>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="12"/>
+      <c r="AA142" s="12"/>
+      <c r="AB142" s="12"/>
+      <c r="AC142" s="12"/>
+      <c r="AD142" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE142" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF142" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG142" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH142" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI142" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ142" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK142" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL142" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM142" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" s="12"/>
+      <c r="I143" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J143" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="K143" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L143" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M143" s="19"/>
+      <c r="N143" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O143" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12">
+        <v>1</v>
+      </c>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="12"/>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="12"/>
+      <c r="AC143" s="12"/>
+      <c r="AD143" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE143" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF143" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG143" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH143" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI143" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ143" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK143" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL143" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM143" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="12"/>
+      <c r="I144" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J144" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="K144" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L144" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M144" s="19"/>
+      <c r="N144" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O144" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12">
+        <v>1</v>
+      </c>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="12"/>
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="12"/>
+      <c r="AC144" s="12"/>
+      <c r="AD144" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE144" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF144" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG144" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH144" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI144" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ144" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK144" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL144" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM144" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="12"/>
+      <c r="I145" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J145" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="K145" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L145" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="M145" s="19"/>
+      <c r="N145" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="O145" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12">
+        <v>1</v>
+      </c>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="12"/>
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="12"/>
+      <c r="AC145" s="12"/>
+      <c r="AD145" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE145" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF145" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG145" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH145" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI145" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ145" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK145" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL145" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM145" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" s="12"/>
+      <c r="I146" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J146" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M146" s="19"/>
+      <c r="N146" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O146" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12">
+        <v>1</v>
+      </c>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="12"/>
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="12"/>
+      <c r="AC146" s="12"/>
+      <c r="AD146" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE146" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF146" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG146" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH146" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI146" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ146" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK146" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL146" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM146" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" s="12"/>
+      <c r="I147" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J147" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="K147" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L147" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M147" s="19"/>
+      <c r="N147" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O147" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12">
+        <v>1</v>
+      </c>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="12"/>
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="12"/>
+      <c r="AC147" s="12"/>
+      <c r="AD147" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE147" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF147" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG147" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH147" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI147" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ147" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK147" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL147" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM147" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" s="12"/>
+      <c r="I148" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J148" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="K148" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M148" s="19"/>
+      <c r="N148" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O148" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12">
+        <v>1</v>
+      </c>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12"/>
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="12"/>
+      <c r="AC148" s="12"/>
+      <c r="AD148" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE148" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF148" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG148" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH148" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI148" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ148" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK148" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL148" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM148" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="12"/>
+      <c r="I149" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J149" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="K149" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M149" s="19"/>
+      <c r="N149" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O149" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="12">
+        <v>1</v>
+      </c>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="12"/>
+      <c r="AA149" s="12"/>
+      <c r="AB149" s="12"/>
+      <c r="AC149" s="12"/>
+      <c r="AD149" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE149" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF149" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG149" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH149" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI149" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ149" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK149" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL149" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM149" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:39" s="26" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="12"/>
+      <c r="I150" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J150" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M150" s="19"/>
+      <c r="N150" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O150" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="12"/>
+      <c r="U150" s="12">
+        <v>1</v>
+      </c>
+      <c r="V150" s="12"/>
+      <c r="W150" s="12"/>
+      <c r="X150" s="12"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="12"/>
+      <c r="AA150" s="12"/>
+      <c r="AB150" s="12"/>
+      <c r="AC150" s="12"/>
+      <c r="AD150" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE150" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF150" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG150" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH150" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI150" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ150" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK150" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL150" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM150" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" s="12"/>
+      <c r="I151" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J151" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L151" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M151" s="19"/>
+      <c r="N151" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O151" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12">
+        <v>1</v>
+      </c>
+      <c r="V151" s="12"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="12"/>
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="12"/>
+      <c r="AC151" s="12"/>
+      <c r="AD151" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE151" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF151" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG151" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH151" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI151" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ151" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK151" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL151" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM151" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" s="12"/>
+      <c r="I152" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J152" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L152" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M152" s="19"/>
+      <c r="N152" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O152" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12">
+        <v>1</v>
+      </c>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12"/>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="12"/>
+      <c r="AC152" s="12"/>
+      <c r="AD152" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE152" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF152" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG152" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH152" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI152" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ152" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK152" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL152" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM152" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" s="12"/>
+      <c r="I153" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J153" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L153" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M153" s="19"/>
+      <c r="N153" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O153" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12">
+        <v>1</v>
+      </c>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12"/>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12"/>
+      <c r="AC153" s="12"/>
+      <c r="AD153" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE153" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF153" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG153" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH153" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI153" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ153" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK153" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL153" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM153" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" s="12"/>
+      <c r="I154" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J154" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L154" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M154" s="19"/>
+      <c r="N154" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O154" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12">
+        <v>1</v>
+      </c>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="12"/>
+      <c r="AA154" s="12"/>
+      <c r="AB154" s="12"/>
+      <c r="AC154" s="12"/>
+      <c r="AD154" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE154" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF154" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG154" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH154" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI154" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ154" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK154" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL154" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM154" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="12"/>
+      <c r="I155" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J155" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L155" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M155" s="19"/>
+      <c r="N155" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O155" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12">
+        <v>1</v>
+      </c>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="12"/>
+      <c r="AC155" s="12"/>
+      <c r="AD155" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE155" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF155" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG155" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH155" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI155" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ155" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK155" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL155" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM155" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:AM82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -30069,9 +34644,9 @@
   </sheetPr>
   <dimension ref="A1:AM153"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AM37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="98.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Excel/Bailey/Bailey — техничка.xlsx
+++ b/Excel/Bailey/Bailey — техничка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Bailey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFB49E-3A6D-4D56-9D4D-83E748B98CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF3B5B-DF19-4523-B4DE-BD48B06C6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF93E06-745E-43BB-B362-39D65D7A1090}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="610">
   <si>
     <t>Артикул на этикетке</t>
   </si>
@@ -9884,6 +9884,551 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>330759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1815473</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1529804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Рисунок 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9352874-3733-4E19-9A42-A50C4E324C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4313463" y="229202902"/>
+          <a:ext cx="1733831" cy="1199045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68033</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>266910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1842900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>1514282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Рисунок 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FFF8E6-AE9D-43F5-A250-652B2A5E650B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4299854" y="230907981"/>
+          <a:ext cx="1774867" cy="1247372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>284703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1839123</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>1494292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Рисунок 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B51E9B-C1DF-414B-B7C1-68F4D5C434A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4367892" y="232694703"/>
+          <a:ext cx="1703052" cy="1209589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>275284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1842901</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>1566096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Рисунок 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C81AC8-05E7-4D3A-93F0-AD9B5711B008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId158"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4299856" y="234454213"/>
+          <a:ext cx="1774866" cy="1290812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40819</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>347506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1824805</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>1527331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Рисунок 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B66C4D-EA7D-46D2-A565-3BF9AE6E2D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4272640" y="236295363"/>
+          <a:ext cx="1783986" cy="1179825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54426</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>310873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1891393</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1583033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Рисунок 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98FB93C-5E57-4A85-90DC-631A8515D136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286247" y="238027659"/>
+          <a:ext cx="1836967" cy="1272160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1855212</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>1537607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Рисунок 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13E9918-1AEE-4C57-8706-490AC4EB41CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259035" y="227348142"/>
+          <a:ext cx="1827998" cy="1292679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>422868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1887691</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>1520619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="Рисунок 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C1B50-00AC-4847-A9C2-C06ACF110348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId162"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354284" y="245215368"/>
+          <a:ext cx="1765228" cy="1097751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>405076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1907467</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1482308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Рисунок 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBFD9DA-B505-4FCD-B5C6-3CC08A0EB2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4327069" y="243428647"/>
+          <a:ext cx="1812219" cy="1077232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1142998</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1044726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1748299</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1508361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Рисунок 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62AF2E-173E-4DF4-AE9F-6B0082C4C6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId164">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5374819" y="244068297"/>
+          <a:ext cx="605301" cy="463635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145491</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>352740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18733</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>1523884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Рисунок 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F413FE-0B60-41C5-AC8F-6E23263BFD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4377312" y="241607383"/>
+          <a:ext cx="1791850" cy="1171144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101529</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>363206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1914991</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>1545399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="Рисунок 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B4CF61-1CBF-4203-9213-3A846E6BDD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId166"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333350" y="239848920"/>
+          <a:ext cx="1813462" cy="1182193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13552,15 +14097,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
+      <xdr:colOff>68037</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2367643</xdr:colOff>
+      <xdr:colOff>2074225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1685563</xdr:rowOff>
+      <xdr:rowOff>1482647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13583,8 +14128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4306661" y="2695576"/>
-          <a:ext cx="2299607" cy="1590312"/>
+          <a:off x="4317652" y="2703636"/>
+          <a:ext cx="2006188" cy="1387396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13602,9 +14147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2408463</xdr:colOff>
+      <xdr:colOff>2108099</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1681624</xdr:rowOff>
+      <xdr:rowOff>1470529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13627,8 +14172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4293053" y="4399189"/>
-          <a:ext cx="2354035" cy="1654410"/>
+          <a:off x="4304043" y="4408714"/>
+          <a:ext cx="2053671" cy="1443315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13646,9 +14191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381251</xdr:colOff>
+      <xdr:colOff>2093040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1645120</xdr:rowOff>
+      <xdr:rowOff>1440419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13671,8 +14216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4361090" y="6184447"/>
-          <a:ext cx="2258786" cy="1604298"/>
+          <a:off x="4372080" y="6195437"/>
+          <a:ext cx="1970575" cy="1399597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13690,9 +14235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2408463</xdr:colOff>
+      <xdr:colOff>2108100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1739240</xdr:rowOff>
+      <xdr:rowOff>1520794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13715,8 +14260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4293054" y="7942490"/>
-          <a:ext cx="2354034" cy="1712025"/>
+          <a:off x="4304044" y="7954946"/>
+          <a:ext cx="2053671" cy="1493579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13734,9 +14279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2393342</xdr:colOff>
+      <xdr:colOff>2091436</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1660071</xdr:rowOff>
+      <xdr:rowOff>1460408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13759,8 +14304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4265839" y="9782176"/>
-          <a:ext cx="2366128" cy="1564820"/>
+          <a:off x="4276829" y="9796097"/>
+          <a:ext cx="2064222" cy="1365157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13778,9 +14323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2550971</xdr:colOff>
+      <xdr:colOff>2230689</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1741716</xdr:rowOff>
+      <xdr:rowOff>1526427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13803,8 +14348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4279446" y="11513005"/>
-          <a:ext cx="2510150" cy="1687286"/>
+          <a:off x="4290436" y="11528392"/>
+          <a:ext cx="2189868" cy="1471997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13816,15 +14361,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:colOff>13609</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2438111</xdr:colOff>
+      <xdr:colOff>2128757</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1728108</xdr:rowOff>
+      <xdr:rowOff>1509346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13847,8 +14392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4252233" y="842282"/>
-          <a:ext cx="2424503" cy="1714501"/>
+          <a:off x="4263224" y="848876"/>
+          <a:ext cx="2115148" cy="1495739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13866,9 +14411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2450108</xdr:colOff>
+      <xdr:colOff>2151376</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1605644</xdr:rowOff>
+      <xdr:rowOff>1419870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13891,8 +14436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4347483" y="18694854"/>
-          <a:ext cx="2341250" cy="1455965"/>
+          <a:off x="4358473" y="18716102"/>
+          <a:ext cx="2042518" cy="1270191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13910,9 +14455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2485219</xdr:colOff>
+      <xdr:colOff>2178534</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1564823</xdr:rowOff>
+      <xdr:rowOff>1382521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13935,8 +14480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4320268" y="16909597"/>
-          <a:ext cx="2403576" cy="1428751"/>
+          <a:off x="4331258" y="16929380"/>
+          <a:ext cx="2096891" cy="1246449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13954,9 +14499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2490107</xdr:colOff>
+      <xdr:colOff>2387671</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1635578</xdr:rowOff>
+      <xdr:rowOff>1557116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13986,8 +14531,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5925911" y="17794176"/>
-          <a:ext cx="802821" cy="614927"/>
+          <a:off x="5936901" y="17813959"/>
+          <a:ext cx="700385" cy="536465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14015,9 +14560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2508446</xdr:colOff>
+      <xdr:colOff>2205208</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1641232</xdr:rowOff>
+      <xdr:rowOff>1443037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14040,8 +14585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4370510" y="15089799"/>
-          <a:ext cx="2376561" cy="1553308"/>
+          <a:off x="4381500" y="15108116"/>
+          <a:ext cx="2073323" cy="1355113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14059,9 +14604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2493146</xdr:colOff>
+      <xdr:colOff>2186252</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1670538</xdr:rowOff>
+      <xdr:rowOff>1470474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14084,8 +14629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4326548" y="13332802"/>
-          <a:ext cx="2405223" cy="1567961"/>
+          <a:off x="4337538" y="13349654"/>
+          <a:ext cx="2098329" cy="1367897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14397,11 +14942,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AM262"/>
+  <dimension ref="A1:AN262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14412,7 +14957,7 @@
     <col min="5" max="5" width="9" style="26"/>
     <col min="6" max="6" width="9" style="23"/>
     <col min="7" max="7" width="9" style="26"/>
-    <col min="8" max="8" width="27.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="26" customWidth="1"/>
     <col min="9" max="9" width="9" style="26"/>
     <col min="10" max="10" width="9" style="30"/>
     <col min="11" max="11" width="9" style="26"/>
@@ -29061,27 +29606,1044 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="46"/>
+      <c r="I156" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J156" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="K156" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="L156" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="M156" s="19"/>
+      <c r="N156" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O156" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12">
+        <v>1</v>
+      </c>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12"/>
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="12"/>
+      <c r="AC156" s="12"/>
+      <c r="AD156" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE156" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF156" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG156" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH156" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI156" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ156" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK156" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL156" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM156" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="12"/>
+      <c r="I157" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J157" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L157" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M157" s="19"/>
+      <c r="N157" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O157" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12">
+        <v>1</v>
+      </c>
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="12"/>
+      <c r="AA157" s="12"/>
+      <c r="AB157" s="12"/>
+      <c r="AC157" s="12"/>
+      <c r="AD157" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE157" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF157" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG157" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH157" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI157" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ157" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK157" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL157" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM157" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" s="12"/>
+      <c r="I158" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J158" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="K158" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L158" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M158" s="19"/>
+      <c r="N158" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O158" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="12"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="12"/>
+      <c r="X158" s="12"/>
+      <c r="Y158" s="12"/>
+      <c r="Z158" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA158" s="12"/>
+      <c r="AB158" s="12"/>
+      <c r="AC158" s="12"/>
+      <c r="AD158" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE158" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF158" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG158" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH158" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI158" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ158" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK158" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL158" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM158" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="12"/>
+      <c r="I159" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J159" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="K159" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L159" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M159" s="19"/>
+      <c r="N159" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O159" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="12"/>
+      <c r="U159" s="12">
+        <v>1</v>
+      </c>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="12"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="12"/>
+      <c r="AA159" s="12"/>
+      <c r="AB159" s="12"/>
+      <c r="AC159" s="12"/>
+      <c r="AD159" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE159" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF159" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG159" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH159" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI159" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ159" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK159" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL159" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM159" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="12"/>
+      <c r="I160" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J160" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L160" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M160" s="19"/>
+      <c r="N160" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O160" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12">
+        <v>1</v>
+      </c>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="12"/>
+      <c r="AA160" s="12"/>
+      <c r="AB160" s="12"/>
+      <c r="AC160" s="12"/>
+      <c r="AD160" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE160" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF160" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG160" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH160" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI160" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ160" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK160" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL160" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM160" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161" s="12"/>
+      <c r="I161" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J161" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L161" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M161" s="19"/>
+      <c r="N161" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O161" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="12"/>
+      <c r="U161" s="12">
+        <v>1</v>
+      </c>
+      <c r="V161" s="12"/>
+      <c r="W161" s="12"/>
+      <c r="X161" s="12"/>
+      <c r="Y161" s="12"/>
+      <c r="Z161" s="12"/>
+      <c r="AA161" s="12"/>
+      <c r="AB161" s="12"/>
+      <c r="AC161" s="12"/>
+      <c r="AD161" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE161" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF161" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG161" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH161" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI161" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ161" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK161" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL161" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM161" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="12"/>
+      <c r="I162" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J162" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="K162" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L162" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M162" s="19"/>
+      <c r="N162" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O162" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12">
+        <v>1</v>
+      </c>
+      <c r="X162" s="12"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="12"/>
+      <c r="AA162" s="12"/>
+      <c r="AB162" s="12"/>
+      <c r="AC162" s="12"/>
+      <c r="AD162" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE162" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF162" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG162" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH162" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI162" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ162" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK162" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL162" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM162" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163" s="12"/>
+      <c r="I163" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J163" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L163" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M163" s="19"/>
+      <c r="N163" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O163" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA163" s="12"/>
+      <c r="AB163" s="12"/>
+      <c r="AC163" s="12"/>
+      <c r="AD163" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE163" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF163" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG163" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH163" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI163" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ163" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK163" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL163" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM163" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="12"/>
+      <c r="I164" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J164" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L164" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M164" s="19"/>
+      <c r="N164" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O164" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="12"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12">
+        <v>1</v>
+      </c>
+      <c r="X164" s="12"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="12"/>
+      <c r="AA164" s="12"/>
+      <c r="AB164" s="12"/>
+      <c r="AC164" s="12"/>
+      <c r="AD164" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE164" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF164" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG164" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH164" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI164" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ164" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK164" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL164" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM164" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="12"/>
+      <c r="I165" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J165" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="K165" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L165" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M165" s="19"/>
+      <c r="N165" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O165" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="12"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="12"/>
+      <c r="AC165" s="12"/>
+      <c r="AD165" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF165" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG165" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH165" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI165" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ165" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK165" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL165" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM165" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H166" s="12"/>
+      <c r="I166" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J166" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="K166" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="L166" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="M166" s="19"/>
+      <c r="N166" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O166" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12">
+        <v>1</v>
+      </c>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="12"/>
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="12"/>
+      <c r="AC166" s="12"/>
+      <c r="AD166" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE166" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF166" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG166" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH166" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AI166" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AJ166" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK166" s="13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL166" s="39">
+        <v>6</v>
+      </c>
+      <c r="AM166" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="28"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="29"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="41"/>
+      <c r="N167" s="32"/>
+      <c r="AD167" s="26"/>
+      <c r="AE167" s="47"/>
+      <c r="AF167" s="48"/>
+      <c r="AG167" s="29"/>
+      <c r="AH167" s="29"/>
+      <c r="AI167" s="33"/>
+      <c r="AL167" s="23"/>
+      <c r="AM167" s="42"/>
+      <c r="AN167" s="42"/>
+    </row>
+    <row r="168" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="28"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="29"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="41"/>
+      <c r="N168" s="32"/>
+      <c r="AD168" s="15">
+        <f>SUM(AD2:AD166)</f>
+        <v>1775</v>
+      </c>
+      <c r="AF168" s="48"/>
+      <c r="AG168" s="29"/>
+      <c r="AH168" s="29"/>
+      <c r="AI168" s="33"/>
+      <c r="AJ168" s="13">
+        <f>SUM(AJ2:AJ166)</f>
+        <v>177.49999999999986</v>
+      </c>
+      <c r="AK168" s="13">
+        <f>SUM(AK2:AK166)</f>
+        <v>266.24999999999881</v>
+      </c>
+      <c r="AM168" s="42"/>
+      <c r="AN168" s="42"/>
+    </row>
+    <row r="169" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:40" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="140.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40040,9 +41602,9 @@
   </sheetPr>
   <dimension ref="A1:AM153"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="98.1" customHeight="1" x14ac:dyDescent="0.25"/>
